--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Unc5d.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0890495</v>
+        <v>0.004501</v>
       </c>
       <c r="N2">
-        <v>0.178099</v>
+        <v>0.009002</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1702895072658334</v>
+        <v>0.007243931905</v>
       </c>
       <c r="R2">
-        <v>1.021737043595</v>
+        <v>0.04346359143</v>
       </c>
       <c r="S2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="T2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>14.172296</v>
       </c>
       <c r="I3">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J3">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.0890495</v>
+        <v>0.004501</v>
       </c>
       <c r="N3">
-        <v>0.178099</v>
+        <v>0.009002</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4206786242173333</v>
+        <v>0.02126316809866666</v>
       </c>
       <c r="R3">
-        <v>2.524071745304</v>
+        <v>0.127579008592</v>
       </c>
       <c r="S3">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="T3">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H4">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I4">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J4">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.0890495</v>
+        <v>0.004501</v>
       </c>
       <c r="N4">
-        <v>0.178099</v>
+        <v>0.009002</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03025275695183334</v>
+        <v>0.002143889314</v>
       </c>
       <c r="R4">
-        <v>0.181516541711</v>
+        <v>0.012863335884</v>
       </c>
       <c r="S4">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="T4">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H5">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I5">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J5">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0890495</v>
+        <v>0.004501</v>
       </c>
       <c r="N5">
-        <v>0.178099</v>
+        <v>0.009002</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.51123687505425</v>
+        <v>0.020827126222</v>
       </c>
       <c r="R5">
-        <v>2.044947500217</v>
+        <v>0.08330850488799998</v>
       </c>
       <c r="S5">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="T5">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H6">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I6">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J6">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0890495</v>
+        <v>0.004501</v>
       </c>
       <c r="N6">
-        <v>0.178099</v>
+        <v>0.009002</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.02931672797416667</v>
+        <v>0.00123264386</v>
       </c>
       <c r="R6">
-        <v>0.175900367845</v>
+        <v>0.007395863159999999</v>
       </c>
       <c r="S6">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="T6">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
     </row>
   </sheetData>
